--- a/doc/template/sno_k.xlsx
+++ b/doc/template/sno_k.xlsx
@@ -128,16 +128,16 @@
     <t>{user}, {city}, {adres}, тел.: {phone}</t>
   </si>
   <si>
-    <t>ООО "Кайрос", ИНН 7203265990, КПП 720301001, 625033, Тюменская обл, г. Тюмень, ул. Михаила Сперанского д.17, тел.: 8(3452) 589-564, 8 (800) 200-26-78</t>
-  </si>
-  <si>
-    <t>40702810000020012036</t>
-  </si>
-  <si>
-    <t>30101810165770000501</t>
-  </si>
-  <si>
-    <t>Филиал № 6602 Банка ВТБ (ПАО) в г. Екатеринбурге</t>
+    <t>Филиал "ЦЕНТРАЛЬНЫЙ" Банка ВТБ ПАО Г. МОСКВА</t>
+  </si>
+  <si>
+    <t>40702810200020012036</t>
+  </si>
+  <si>
+    <t>30101810145250000411</t>
+  </si>
+  <si>
+    <t>ООО "Кайрос", ИНН 7203265990, КПП 720301001, 625000, Тюменская обл, г. Тюмень, ул. Михаила Сперанского д.17, тел.: 8(3452) 589-564, 8 (800) 200-26-78</t>
   </si>
 </sst>
 </file>
@@ -439,6 +439,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -513,9 +516,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,7 +828,7 @@
   <dimension ref="A1:AL32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN9" sqref="AN9"/>
+      <selection activeCell="AQ18" sqref="AQ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="6" spans="2:38" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -1050,7 +1050,7 @@
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
       <c r="Z6" s="12">
-        <v>46577501</v>
+        <v>44525411</v>
       </c>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
@@ -1150,33 +1150,33 @@
       <c r="AL8" s="19"/>
     </row>
     <row r="9" spans="2:38" ht="12" x14ac:dyDescent="0.2">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27">
         <v>7203265990</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="25" t="s">
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="26">
+      <c r="M9" s="26"/>
+      <c r="N9" s="27">
         <v>720301001</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
       <c r="U9" s="13" t="s">
         <v>2</v>
       </c>
@@ -1184,455 +1184,455 @@
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
-      <c r="Z9" s="46" t="s">
+      <c r="Z9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="46"/>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="46"/>
-      <c r="AG9" s="46"/>
-      <c r="AH9" s="46"/>
-      <c r="AI9" s="46"/>
-      <c r="AJ9" s="46"/>
-      <c r="AK9" s="46"/>
-      <c r="AL9" s="46"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
     </row>
     <row r="10" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="46"/>
-      <c r="AC10" s="46"/>
-      <c r="AD10" s="46"/>
-      <c r="AE10" s="46"/>
-      <c r="AF10" s="46"/>
-      <c r="AG10" s="46"/>
-      <c r="AH10" s="46"/>
-      <c r="AI10" s="46"/>
-      <c r="AJ10" s="46"/>
-      <c r="AK10" s="46"/>
-      <c r="AL10" s="46"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21"/>
     </row>
     <row r="11" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="46"/>
-      <c r="AF11" s="46"/>
-      <c r="AG11" s="46"/>
-      <c r="AH11" s="46"/>
-      <c r="AI11" s="46"/>
-      <c r="AJ11" s="46"/>
-      <c r="AK11" s="46"/>
-      <c r="AL11" s="46"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="21"/>
     </row>
     <row r="12" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="46"/>
-      <c r="AE12" s="46"/>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="46"/>
-      <c r="AH12" s="46"/>
-      <c r="AI12" s="46"/>
-      <c r="AJ12" s="46"/>
-      <c r="AK12" s="46"/>
-      <c r="AL12" s="46"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
     </row>
     <row r="14" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="23"/>
-      <c r="AI14" s="23"/>
-      <c r="AJ14" s="23"/>
-      <c r="AK14" s="23"/>
-      <c r="AL14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="24"/>
     </row>
     <row r="15" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="23"/>
-      <c r="AJ15" s="23"/>
-      <c r="AK15" s="23"/>
-      <c r="AL15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="24"/>
+      <c r="AH15" s="24"/>
+      <c r="AI15" s="24"/>
+      <c r="AJ15" s="24"/>
+      <c r="AK15" s="24"/>
+      <c r="AL15" s="24"/>
     </row>
     <row r="16" spans="2:38" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="24"/>
-      <c r="AH16" s="24"/>
-      <c r="AI16" s="24"/>
-      <c r="AJ16" s="24"/>
-      <c r="AK16" s="24"/>
-      <c r="AL16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
     </row>
     <row r="17" spans="1:38" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:38" ht="25.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
-      <c r="AK18" s="28"/>
-      <c r="AL18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="29"/>
+      <c r="AL18" s="29"/>
     </row>
     <row r="19" spans="1:38" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:38" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28" t="s">
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
-      <c r="AK20" s="28"/>
-      <c r="AL20" s="28"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="29"/>
     </row>
     <row r="21" spans="1:38" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:38" ht="12" x14ac:dyDescent="0.2">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30" t="s">
+      <c r="C22" s="30"/>
+      <c r="D22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30" t="s">
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30" t="s">
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30" t="s">
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="31" t="s">
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="31"/>
+      <c r="AG22" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="AH22" s="31"/>
-      <c r="AI22" s="31"/>
-      <c r="AJ22" s="31"/>
-      <c r="AK22" s="31"/>
-      <c r="AL22" s="31"/>
+      <c r="AH22" s="32"/>
+      <c r="AI22" s="32"/>
+      <c r="AJ22" s="32"/>
+      <c r="AK22" s="32"/>
+      <c r="AL22" s="32"/>
     </row>
     <row r="23" spans="1:38" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39" t="s">
+      <c r="C23" s="39"/>
+      <c r="D23" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="41" t="s">
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="43" t="s">
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="44" t="s">
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="AC23" s="45"/>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="45"/>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="33" t="s">
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="AH23" s="34"/>
-      <c r="AI23" s="34"/>
-      <c r="AJ23" s="34"/>
-      <c r="AK23" s="34"/>
-      <c r="AL23" s="34"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="35"/>
+      <c r="AJ23" s="35"/>
+      <c r="AK23" s="35"/>
+      <c r="AL23" s="35"/>
     </row>
     <row r="24" spans="1:38" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
@@ -1681,14 +1681,14 @@
       <c r="AF25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AG25" s="35" t="s">
+      <c r="AG25" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AH25" s="35"/>
-      <c r="AI25" s="35"/>
-      <c r="AJ25" s="35"/>
-      <c r="AK25" s="35"/>
-      <c r="AL25" s="35"/>
+      <c r="AH25" s="36"/>
+      <c r="AI25" s="36"/>
+      <c r="AJ25" s="36"/>
+      <c r="AK25" s="36"/>
+      <c r="AL25" s="36"/>
     </row>
     <row r="26" spans="1:38" ht="12" x14ac:dyDescent="0.2">
       <c r="AB26" s="4"/>
@@ -1715,96 +1715,96 @@
       <c r="AF27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AG27" s="35" t="s">
+      <c r="AG27" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AH27" s="35"/>
-      <c r="AI27" s="35"/>
-      <c r="AJ27" s="35"/>
-      <c r="AK27" s="35"/>
-      <c r="AL27" s="35"/>
+      <c r="AH27" s="36"/>
+      <c r="AI27" s="36"/>
+      <c r="AJ27" s="36"/>
+      <c r="AK27" s="36"/>
+      <c r="AL27" s="36"/>
     </row>
     <row r="28" spans="1:38" ht="12" x14ac:dyDescent="0.2">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="36"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="36"/>
-      <c r="AI28" s="36"/>
-      <c r="AJ28" s="36"/>
-      <c r="AK28" s="36"/>
-      <c r="AL28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="37"/>
+      <c r="AF28" s="37"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="37"/>
+      <c r="AI28" s="37"/>
+      <c r="AJ28" s="37"/>
+      <c r="AK28" s="37"/>
+      <c r="AL28" s="37"/>
     </row>
     <row r="29" spans="1:38" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29"/>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="28"/>
-      <c r="AG29" s="28"/>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="28"/>
-      <c r="AJ29" s="28"/>
-      <c r="AK29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="29"/>
+      <c r="AI29" s="29"/>
+      <c r="AJ29" s="29"/>
+      <c r="AK29" s="29"/>
       <c r="AL29"/>
     </row>
     <row r="30" spans="1:38" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1860,17 +1860,17 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="32" t="s">
+      <c r="L32" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
       <c r="U32"/>
       <c r="V32"/>
       <c r="W32" s="5" t="s">
@@ -1884,13 +1884,13 @@
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
       <c r="AE32" s="6"/>
-      <c r="AF32" s="32"/>
-      <c r="AG32" s="32"/>
-      <c r="AH32" s="32"/>
-      <c r="AI32" s="32"/>
-      <c r="AJ32" s="32"/>
-      <c r="AK32" s="32"/>
-      <c r="AL32" s="32"/>
+      <c r="AF32" s="33"/>
+      <c r="AG32" s="33"/>
+      <c r="AH32" s="33"/>
+      <c r="AI32" s="33"/>
+      <c r="AJ32" s="33"/>
+      <c r="AK32" s="33"/>
+      <c r="AL32" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="40">
